--- a/test/files/BFR5-Female-Questionnaire-v8-jef.xlsx
+++ b/test/files/BFR5-Female-Questionnaire-v8-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5399" uniqueCount="2674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="2676">
   <si>
     <t>type</t>
   </si>
@@ -8713,6 +8713,12 @@
   </si>
   <si>
     <t>LCL_608. Quel âge aviez-vous quand vous avez eu vos premières règles?</t>
+  </si>
+  <si>
+    <t>213a&amp;b</t>
+  </si>
+  <si>
+    <t>Removed accidental ppp_exclude from selection list: pregnancy_desired</t>
   </si>
 </sst>
 </file>
@@ -9161,7 +9167,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1767">
+  <cellStyleXfs count="1773">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10389,6 +10395,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11426,7 +11438,7 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1767">
+  <cellStyles count="1773">
     <cellStyle name="20% - Accent6" xfId="1222" builtinId="50"/>
     <cellStyle name="Excel Built-in Normal" xfId="228"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -12310,6 +12322,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -13191,6 +13206,9 @@
     <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="37"/>
     <cellStyle name="Normal 5" xfId="231"/>
@@ -13513,9 +13531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -34382,11 +34400,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -38205,7 +38223,16 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="193" spans="4:6" ht="13" customHeight="1">
+    <row r="193" spans="1:6" ht="13" customHeight="1">
+      <c r="A193" s="24">
+        <v>8</v>
+      </c>
+      <c r="B193" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D193" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38216,7 +38243,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="194" spans="4:6" ht="13" customHeight="1">
+    <row r="194" spans="1:6" ht="13" customHeight="1">
+      <c r="A194" s="24">
+        <v>8</v>
+      </c>
+      <c r="B194" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D194" s="24" t="s">
         <v>1891</v>
       </c>
@@ -38227,7 +38263,16 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="195" spans="4:6" ht="13" customHeight="1">
+    <row r="195" spans="1:6" ht="13" customHeight="1">
+      <c r="A195" s="24">
+        <v>8</v>
+      </c>
+      <c r="B195" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D195" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38238,7 +38283,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="196" spans="4:6" ht="13" customHeight="1">
+    <row r="196" spans="1:6" ht="13" customHeight="1">
+      <c r="A196" s="24">
+        <v>8</v>
+      </c>
+      <c r="B196" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D196" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38249,7 +38303,16 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="197" spans="4:6" ht="13" customHeight="1">
+    <row r="197" spans="1:6" ht="13" customHeight="1">
+      <c r="A197" s="24">
+        <v>8</v>
+      </c>
+      <c r="B197" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D197" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38260,7 +38323,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="198" spans="4:6" ht="13" customHeight="1">
+    <row r="198" spans="1:6" ht="13" customHeight="1">
+      <c r="A198" s="24">
+        <v>8</v>
+      </c>
+      <c r="B198" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D198" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38271,7 +38343,16 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="199" spans="4:6" ht="13" customHeight="1">
+    <row r="199" spans="1:6" ht="13" customHeight="1">
+      <c r="A199" s="24">
+        <v>8</v>
+      </c>
+      <c r="B199" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D199" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38282,7 +38363,16 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="200" spans="4:6" ht="13" customHeight="1">
+    <row r="200" spans="1:6" ht="13" customHeight="1">
+      <c r="A200" s="24">
+        <v>8</v>
+      </c>
+      <c r="B200" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D200" s="24" t="s">
         <v>2578</v>
       </c>
@@ -38293,7 +38383,16 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="201" spans="4:6" ht="13" customHeight="1">
+    <row r="201" spans="1:6" ht="13" customHeight="1">
+      <c r="A201" s="24">
+        <v>8</v>
+      </c>
+      <c r="B201" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D201" s="24" t="s">
         <v>2564</v>
       </c>
@@ -38304,7 +38403,16 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="202" spans="4:6" ht="13" customHeight="1">
+    <row r="202" spans="1:6" ht="13" customHeight="1">
+      <c r="A202" s="24">
+        <v>8</v>
+      </c>
+      <c r="B202" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D202" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38315,7 +38423,16 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="203" spans="4:6" ht="13" customHeight="1">
+    <row r="203" spans="1:6" ht="13" customHeight="1">
+      <c r="A203" s="24">
+        <v>8</v>
+      </c>
+      <c r="B203" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D203" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38326,7 +38443,16 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="204" spans="4:6" ht="13" customHeight="1">
+    <row r="204" spans="1:6" ht="13" customHeight="1">
+      <c r="A204" s="24">
+        <v>8</v>
+      </c>
+      <c r="B204" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D204" s="24" t="s">
         <v>1891</v>
       </c>
@@ -38337,7 +38463,16 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="205" spans="4:6" ht="13" customHeight="1">
+    <row r="205" spans="1:6" ht="13" customHeight="1">
+      <c r="A205" s="24">
+        <v>8</v>
+      </c>
+      <c r="B205" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D205" s="24" t="s">
         <v>1891</v>
       </c>
@@ -38348,7 +38483,16 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="206" spans="4:6" ht="13" customHeight="1">
+    <row r="206" spans="1:6" ht="13" customHeight="1">
+      <c r="A206" s="24">
+        <v>8</v>
+      </c>
+      <c r="B206" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D206" s="24" t="s">
         <v>1891</v>
       </c>
@@ -38359,7 +38503,16 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="207" spans="4:6" ht="13" customHeight="1">
+    <row r="207" spans="1:6" ht="13" customHeight="1">
+      <c r="A207" s="24">
+        <v>8</v>
+      </c>
+      <c r="B207" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D207" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38370,7 +38523,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="208" spans="4:6" ht="13" customHeight="1">
+    <row r="208" spans="1:6" ht="13" customHeight="1">
+      <c r="A208" s="24">
+        <v>8</v>
+      </c>
+      <c r="B208" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D208" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38381,7 +38543,16 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="209" spans="4:6" ht="13" customHeight="1">
+    <row r="209" spans="1:6" ht="13" customHeight="1">
+      <c r="A209" s="24">
+        <v>8</v>
+      </c>
+      <c r="B209" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D209" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38392,7 +38563,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="210" spans="4:6" ht="13" customHeight="1">
+    <row r="210" spans="1:6" ht="13" customHeight="1">
+      <c r="A210" s="24">
+        <v>8</v>
+      </c>
+      <c r="B210" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D210" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38403,7 +38583,16 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="211" spans="4:6" ht="13" customHeight="1">
+    <row r="211" spans="1:6" ht="13" customHeight="1">
+      <c r="A211" s="24">
+        <v>8</v>
+      </c>
+      <c r="B211" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D211" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38414,7 +38603,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="212" spans="4:6" ht="13" customHeight="1">
+    <row r="212" spans="1:6" ht="13" customHeight="1">
+      <c r="A212" s="24">
+        <v>8</v>
+      </c>
+      <c r="B212" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D212" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38425,7 +38623,16 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="213" spans="4:6" ht="13" customHeight="1">
+    <row r="213" spans="1:6" ht="13" customHeight="1">
+      <c r="A213" s="24">
+        <v>8</v>
+      </c>
+      <c r="B213" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D213" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38436,7 +38643,16 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="214" spans="4:6" ht="13" customHeight="1">
+    <row r="214" spans="1:6" ht="13" customHeight="1">
+      <c r="A214" s="24">
+        <v>8</v>
+      </c>
+      <c r="B214" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D214" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38447,7 +38663,16 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="215" spans="4:6" ht="13" customHeight="1">
+    <row r="215" spans="1:6" ht="13" customHeight="1">
+      <c r="A215" s="24">
+        <v>8</v>
+      </c>
+      <c r="B215" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D215" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38458,7 +38683,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="216" spans="4:6" ht="13" customHeight="1">
+    <row r="216" spans="1:6" ht="13" customHeight="1">
+      <c r="A216" s="24">
+        <v>8</v>
+      </c>
+      <c r="B216" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D216" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38469,7 +38703,16 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="217" spans="4:6" ht="13" customHeight="1">
+    <row r="217" spans="1:6" ht="13" customHeight="1">
+      <c r="A217" s="24">
+        <v>8</v>
+      </c>
+      <c r="B217" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D217" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38480,7 +38723,16 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="218" spans="4:6" ht="13" customHeight="1">
+    <row r="218" spans="1:6" ht="13" customHeight="1">
+      <c r="A218" s="24">
+        <v>8</v>
+      </c>
+      <c r="B218" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D218" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38491,7 +38743,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="219" spans="4:6" ht="13" customHeight="1">
+    <row r="219" spans="1:6" ht="13" customHeight="1">
+      <c r="A219" s="24">
+        <v>8</v>
+      </c>
+      <c r="B219" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D219" s="24" t="s">
         <v>2646</v>
       </c>
@@ -38502,7 +38763,16 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="220" spans="4:6" ht="13" customHeight="1">
+    <row r="220" spans="1:6" ht="13" customHeight="1">
+      <c r="A220" s="24">
+        <v>8</v>
+      </c>
+      <c r="B220" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D220" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38513,7 +38783,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="221" spans="4:6" ht="13" customHeight="1">
+    <row r="221" spans="1:6" ht="13" customHeight="1">
+      <c r="A221" s="24">
+        <v>8</v>
+      </c>
+      <c r="B221" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D221" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38524,7 +38803,16 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="222" spans="4:6" ht="13" customHeight="1">
+    <row r="222" spans="1:6" ht="13" customHeight="1">
+      <c r="A222" s="24">
+        <v>8</v>
+      </c>
+      <c r="B222" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D222" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38535,7 +38823,16 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="223" spans="4:6" ht="13" customHeight="1">
+    <row r="223" spans="1:6" ht="13" customHeight="1">
+      <c r="A223" s="24">
+        <v>8</v>
+      </c>
+      <c r="B223" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D223" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38546,7 +38843,16 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="224" spans="4:6" ht="13" customHeight="1">
+    <row r="224" spans="1:6" ht="13" customHeight="1">
+      <c r="A224" s="24">
+        <v>8</v>
+      </c>
+      <c r="B224" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D224" s="24" t="s">
         <v>2578</v>
       </c>
@@ -38557,7 +38863,16 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="225" spans="4:6" ht="13" customHeight="1">
+    <row r="225" spans="1:6" ht="13" customHeight="1">
+      <c r="A225" s="24">
+        <v>8</v>
+      </c>
+      <c r="B225" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D225" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38568,7 +38883,16 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="226" spans="4:6" ht="13" customHeight="1">
+    <row r="226" spans="1:6" ht="13" customHeight="1">
+      <c r="A226" s="24">
+        <v>8</v>
+      </c>
+      <c r="B226" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D226" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38579,7 +38903,16 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="227" spans="4:6" ht="13" customHeight="1">
+    <row r="227" spans="1:6" ht="13" customHeight="1">
+      <c r="A227" s="24">
+        <v>8</v>
+      </c>
+      <c r="B227" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D227" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38590,7 +38923,16 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="228" spans="4:6" ht="13" customHeight="1">
+    <row r="228" spans="1:6" ht="13" customHeight="1">
+      <c r="A228" s="24">
+        <v>8</v>
+      </c>
+      <c r="B228" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D228" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38601,7 +38943,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="229" spans="4:6" ht="13" customHeight="1">
+    <row r="229" spans="1:6" ht="13" customHeight="1">
+      <c r="A229" s="24">
+        <v>8</v>
+      </c>
+      <c r="B229" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D229" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38612,7 +38963,16 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="230" spans="4:6" ht="13" customHeight="1">
+    <row r="230" spans="1:6" ht="13" customHeight="1">
+      <c r="A230" s="24">
+        <v>8</v>
+      </c>
+      <c r="B230" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D230" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38623,7 +38983,16 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="231" spans="4:6" ht="13" customHeight="1">
+    <row r="231" spans="1:6" ht="13" customHeight="1">
+      <c r="A231" s="24">
+        <v>8</v>
+      </c>
+      <c r="B231" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D231" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38634,7 +39003,16 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="232" spans="4:6" ht="13" customHeight="1">
+    <row r="232" spans="1:6" ht="13" customHeight="1">
+      <c r="A232" s="24">
+        <v>8</v>
+      </c>
+      <c r="B232" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D232" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38645,7 +39023,16 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="233" spans="4:6" ht="13" customHeight="1">
+    <row r="233" spans="1:6" ht="13" customHeight="1">
+      <c r="A233" s="24">
+        <v>8</v>
+      </c>
+      <c r="B233" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>1349</v>
+      </c>
       <c r="D233" s="24" t="s">
         <v>1258</v>
       </c>
@@ -38654,6 +39041,26 @@
       </c>
       <c r="F233" s="24" t="s">
         <v>2665</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13" customHeight="1">
+      <c r="A234" s="24">
+        <v>8</v>
+      </c>
+      <c r="B234" s="38">
+        <v>43012</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E234" s="130" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F234" s="24" t="s">
+        <v>2675</v>
       </c>
     </row>
   </sheetData>
